--- a/Example.xlsx
+++ b/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alaric Taylor-Roffey\Documents\GitHub\PyG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D12E12-6EF1-4B8D-A3C8-91D3A5C8DA8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B47734-CD4B-4CB0-B85D-9998D8376C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3816" yWindow="12852" windowWidth="23256" windowHeight="12720" xr2:uid="{DB078532-1833-43CB-9EE1-6E3FE82B9089}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Start</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Job 4</t>
-  </si>
-  <si>
-    <t>Job 5</t>
   </si>
   <si>
     <t>Group B</t>
@@ -537,7 +534,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -634,9 +631,6 @@
         <f t="shared" ref="C5:C8" si="1">C4+14</f>
         <v>44231</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
@@ -651,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
@@ -667,7 +661,7 @@
         <v>44245</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -683,7 +677,7 @@
         <v>44259</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
